--- a/results/ejercicio3.xlsx
+++ b/results/ejercicio3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04382886743436024</v>
+        <v>0.285735240394602</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -470,23 +470,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0336766176838725</v>
+        <v>0.2149145517133375</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alicante/Alacant</t>
+          <t>Alacant/Alicante</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02412961114522411</v>
+        <v>0.2286231344379116</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02663334092189737</v>
+        <v>0.2109161930577687</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03892926115732774</v>
+        <v>0.3005370139837352</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -522,23 +522,23 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03234189313723143</v>
+        <v>0.2788425237537643</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Balears (Illes)</t>
+          <t>Illes Balears</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02235022564668387</v>
+        <v>0.2067202647003389</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02168199858355642</v>
+        <v>0.2483923808593487</v>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04578454607463361</v>
+        <v>0.2979317486766824</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04743462366018933</v>
+        <v>0.2815207392571256</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02604645552147652</v>
+        <v>0.1597664163184027</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -596,14 +596,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Castellón/Castelló</t>
+          <t>Castelló/Castellón</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02959855273630589</v>
+        <v>0.2761124481894459</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03770705690260617</v>
+        <v>0.2704151871992366</v>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -626,23 +626,23 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0342382447762548</v>
+        <v>0.2856268868679157</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Coruña (A)</t>
+          <t>A Coruña</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04023995025447323</v>
+        <v>0.2929625249432078</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03441778542972272</v>
+        <v>0.3180550172583693</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.02227840235057532</v>
+        <v>0.2064482205816434</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02756464588820391</v>
+        <v>0.2438251478407663</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0309859093105318</v>
+        <v>0.298164325351311</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.03935834528193916</v>
+        <v>0.2365932479304993</v>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02731312525037113</v>
+        <v>0.2929940828484041</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.03236770436051726</v>
+        <v>0.2634694327368446</v>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.03732129156196902</v>
+        <v>0.2859912102692259</v>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.04352713797380911</v>
+        <v>0.2928891127375993</v>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -769,23 +769,23 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.02982613312848378</v>
+        <v>0.242312466940871</v>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rioja (La)</t>
+          <t>La Rioja</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.03459881905173372</v>
+        <v>0.2866321409486296</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0416797410699512</v>
+        <v>0.3095875227688303</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.022328134148414</v>
+        <v>0.2190426832982557</v>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.02344755404428869</v>
+        <v>0.1988923728065914</v>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.02523709320965957</v>
+        <v>0.2433764205369494</v>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.03320728136548779</v>
+        <v>0.165981037437761</v>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.07787485015339887</v>
+        <v>0.2981650117895843</v>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0402049706198889</v>
+        <v>0.2860200038118403</v>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -886,202 +886,202 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.04332596768442167</v>
+        <v>0.3105363471715809</v>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Palmas (Las)</t>
+          <t>Pontevedra</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0283062479685858</v>
+        <v>0.2957197434628145</v>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pontevedra</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.03551636045154872</v>
+        <v>0.293086470332834</v>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Salamanca</t>
+          <t>Cantabria</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.03721442358876278</v>
+        <v>0.298987722061843</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Santa Cruz de Tenerife</t>
+          <t>Segovia</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.02743254774382112</v>
+        <v>0.3018976614970462</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cantabria</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.04041726658146467</v>
+        <v>0.2238729181390343</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Segovia</t>
+          <t>Soria</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.08462591917972975</v>
+        <v>0.3264392719739629</v>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Tarragona</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02641691205219179</v>
+        <v>0.230751469302527</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Soria</t>
+          <t>Teruel</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.03907889290527081</v>
+        <v>0.2178704947316009</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tarragona</t>
+          <t>Toledo</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.02250542679562314</v>
+        <v>0.2597829439487325</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Teruel</t>
+          <t>València/Valencia</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.05722641799096417</v>
+        <v>0.1983907527942733</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Toledo</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.02787516964288489</v>
+        <v>0.2833821107420834</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Valencia/València</t>
+          <t>Bizkaia</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.02243031031665139</v>
+        <v>0.293074638430981</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0454384256948551</v>
+        <v>0.292904314164334</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bizkaia</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.04780658180873728</v>
+        <v>0.29216951665411</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Zamora</t>
+          <t>Ceuta</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.03980829505646288</v>
+        <v>0.0794999015389227</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -1090,39 +1090,13 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Melilla</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.03044866825449501</v>
+        <v>0.103159321735515</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Ceuta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.02961705357354025</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Melilla</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.02770486166787055</v>
-      </c>
-      <c r="C53" t="n">
         <v>2</v>
       </c>
     </row>

--- a/results/ejercicio3.xlsx
+++ b/results/ejercicio3.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.285735240394602</v>
+        <v>0.205702586464461</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2149145517133375</v>
+        <v>0.1643932307303566</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2286231344379116</v>
+        <v>0.1301629405423668</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2109161930577687</v>
+        <v>0.109029252404279</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3005370139837352</v>
+        <v>0.2349255361509649</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2788425237537643</v>
+        <v>0.1753554597463773</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2067202647003389</v>
+        <v>0.1039229826610508</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2483923808593487</v>
+        <v>0.1127281548649403</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.2979317486766824</v>
+        <v>0.2657546054193928</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2815207392571256</v>
+        <v>0.1842050212129164</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1597664163184027</v>
+        <v>0.07476217823650765</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2761124481894459</v>
+        <v>0.1275136930872255</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2704151871992366</v>
+        <v>0.1724622471301214</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2856268868679157</v>
+        <v>0.176267729111987</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2929625249432078</v>
+        <v>0.1949085160080017</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3180550172583693</v>
+        <v>0.2686615794129055</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2064482205816434</v>
+        <v>0.09884205815116515</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.2438251478407663</v>
+        <v>0.09612066273305153</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.298164325351311</v>
+        <v>0.2505747425742995</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -704,7 +704,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2365932479304993</v>
+        <v>0.1882567665545256</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2929940828484041</v>
+        <v>0.1691909686138251</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2634694327368446</v>
+        <v>0.1771075965611703</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2859912102692259</v>
+        <v>0.1777097446305805</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2928891127375993</v>
+        <v>0.1988330232120193</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.242312466940871</v>
+        <v>0.1558336284130092</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2866321409486296</v>
+        <v>0.151885000149397</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3095875227688303</v>
+        <v>0.2646095887525755</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2190426832982557</v>
+        <v>0.1193517335240628</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1988923728065914</v>
+        <v>0.09585285992210585</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2433764205369494</v>
+        <v>0.1587746591110122</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.165981037437761</v>
+        <v>0.1390706124909216</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2981650117895843</v>
+        <v>0.2116139315861498</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2860200038118403</v>
+        <v>0.2001899161844258</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3105363471715809</v>
+        <v>0.2959939320284075</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -899,7 +899,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2957197434628145</v>
+        <v>0.2063818574789965</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.293086470332834</v>
+        <v>0.181271018807856</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.298987722061843</v>
+        <v>0.2237414899724128</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3018976614970462</v>
+        <v>0.2454544098688217</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2238729181390343</v>
+        <v>0.1473826792247265</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -964,7 +964,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3264392719739629</v>
+        <v>0.2968459084409374</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.230751469302527</v>
+        <v>0.1098208266875632</v>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -990,7 +990,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2178704947316009</v>
+        <v>0.1696215075973009</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2597829439487325</v>
+        <v>0.1179767179609373</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1983907527942733</v>
+        <v>0.106401399922419</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2833821107420834</v>
+        <v>0.1978244236789283</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.293074638430981</v>
+        <v>0.2175725242527419</v>
       </c>
       <c r="C47" t="n">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.292904314164334</v>
+        <v>0.1849190056139085</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.29216951665411</v>
+        <v>0.2045798442404839</v>
       </c>
       <c r="C49" t="n">
         <v>1</v>
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.0794999015389227</v>
+        <v>0.0304819300579829</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -1094,7 +1094,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.103159321735515</v>
+        <v>0.03275573029001756</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>

--- a/results/ejercicio3.xlsx
+++ b/results/ejercicio3.xlsx
@@ -1097,7 +1097,7 @@
         <v>0.03275573029001756</v>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
